--- a/service-system/target/classes/static/摩擦系数-5车道.xlsx
+++ b/service-system/target/classes/static/摩擦系数-5车道.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2859E79-6A38-49C3-AD91-43B3E59DA254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B607E14-A5EF-435B-8808-613876DFBE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,12 +629,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,41 +674,11 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,20 +1164,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -1188,82 +1188,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1740,13 +1740,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="19"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -1755,16 +1755,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="19"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -1773,14 +1773,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="19"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -1789,14 +1789,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="19"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -1805,14 +1805,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -1824,11 +1824,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="19"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -1840,14 +1840,27 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="19"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:L43"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B4:F4"/>
@@ -1863,19 +1876,6 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:L43"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -1910,20 +1910,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -1933,82 +1933,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2485,13 +2485,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="19"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -2500,16 +2500,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="19"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -2518,14 +2518,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="19"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -2534,14 +2534,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="19"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -2550,14 +2550,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -2569,11 +2569,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="19"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -2585,20 +2585,20 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="19"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:L38"/>
@@ -2615,12 +2615,12 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:G3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2655,20 +2655,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -2678,82 +2678,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3230,13 +3230,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="19"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -3245,16 +3245,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="19"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -3263,14 +3263,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="19"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -3279,14 +3279,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="19"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -3295,14 +3295,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -3314,11 +3314,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="19"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -3330,26 +3330,14 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="19"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="H43:L43"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="H38:I38"/>
@@ -3366,6 +3354,18 @@
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3400,20 +3400,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -3423,82 +3423,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3975,13 +3975,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="19"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -3990,16 +3990,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="19"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -4008,14 +4008,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="19"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -4024,14 +4024,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="19"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -4040,14 +4040,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -4059,11 +4059,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="19"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -4075,26 +4075,14 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="19"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="G39:G42"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:L42"/>
@@ -4111,6 +4099,18 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4145,20 +4145,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -4168,82 +4168,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -4720,13 +4720,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="19"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -4735,16 +4735,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="19"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -4753,14 +4753,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="19"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -4769,14 +4769,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="19"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -4785,14 +4785,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -4804,11 +4804,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="19"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -4820,27 +4820,14 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="19"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="A1:L1"/>
@@ -4856,6 +4843,19 @@
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4890,20 +4890,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -4913,82 +4913,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5465,13 +5465,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="19"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -5480,16 +5480,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="19"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -5498,14 +5498,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="19"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -5514,14 +5514,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="19"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -5530,14 +5530,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -5549,11 +5549,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="19"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -5565,26 +5565,14 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="19"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="G39:G42"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:L42"/>
@@ -5601,6 +5589,18 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>

--- a/service-system/target/classes/static/摩擦系数-5车道.xlsx
+++ b/service-system/target/classes/static/摩擦系数-5车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B607E14-A5EF-435B-8808-613876DFBE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE97B69C-8B1B-461E-B186-8A12904B674A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="左幅-路面" sheetId="468" r:id="rId1"/>
@@ -52,7 +52,18 @@
     <definedName name="右幅" localSheetId="4">[1]Sheet1!#REF!</definedName>
     <definedName name="右幅">[1]Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullPrecision="0"/>
+  <calcPr calcId="191029" fullPrecision="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -177,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\K#\+###"/>
@@ -187,6 +198,7 @@
     <numFmt numFmtId="180" formatCode="\$#,##0.00;\(\$#,##0.00\)"/>
     <numFmt numFmtId="181" formatCode="\$#,##0;\(\$#,##0\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -576,7 +588,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,6 +641,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,15 +674,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,21 +692,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,6 +720,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1164,20 +1185,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -1188,82 +1209,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1300,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1740,13 +1761,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -1755,16 +1776,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -1773,14 +1794,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -1789,14 +1810,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -1805,14 +1826,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -1824,11 +1845,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -1840,27 +1861,14 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:L43"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B4:F4"/>
@@ -1876,6 +1884,19 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:L43"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -1893,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1910,20 +1931,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -1933,82 +1954,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2045,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2485,13 +2506,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -2500,16 +2521,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -2518,14 +2539,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -2534,14 +2555,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -2550,14 +2571,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -2569,11 +2590,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -2585,20 +2606,20 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:G3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:L38"/>
@@ -2615,12 +2636,12 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2638,8 +2659,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2655,20 +2676,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -2678,82 +2699,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2790,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3230,13 +3251,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -3245,16 +3266,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -3263,14 +3284,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -3279,14 +3300,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -3295,14 +3316,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -3314,11 +3335,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -3330,14 +3351,26 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H43:L43"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="H38:I38"/>
@@ -3354,18 +3387,6 @@
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3383,8 +3404,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:L5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3400,20 +3421,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -3423,82 +3444,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3514,7 +3535,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3975,13 +3996,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -3990,16 +4011,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -4008,14 +4029,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -4024,14 +4045,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -4040,14 +4061,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -4059,11 +4080,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -4075,14 +4096,26 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:L42"/>
@@ -4099,18 +4132,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4128,8 +4149,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4145,20 +4166,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -4168,82 +4189,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -4259,7 +4280,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -4720,13 +4741,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -4735,16 +4756,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -4753,14 +4774,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -4769,14 +4790,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -4785,14 +4806,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -4804,11 +4825,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -4820,14 +4841,27 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="A1:L1"/>
@@ -4843,19 +4877,6 @@
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4873,8 +4894,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:L5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4890,20 +4911,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
@@ -4913,82 +4934,82 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5004,7 +5025,7 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5465,13 +5486,13 @@
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
@@ -5480,16 +5501,16 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -5498,14 +5519,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
@@ -5514,14 +5535,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
@@ -5530,14 +5551,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
@@ -5549,11 +5570,11 @@
       <c r="G43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
@@ -5565,14 +5586,26 @@
       <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:L42"/>
@@ -5589,18 +5622,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
